--- a/build/keywords.xlsx
+++ b/build/keywords.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Develop\Pulsar\language-sofistik\.dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Develop\Pulsar\language-sofistik\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A322C4F7-EB1E-49BF-B959-A726E24B3440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CA5FBB-4B53-4CC9-9797-87AA84279E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21270" firstSheet="18" activeTab="33" xr2:uid="{F1DC097C-994B-40A0-AE10-01AA50F843D6}"/>
   </bookViews>
@@ -6819,9 +6819,6 @@
     <t>VY-</t>
   </si>
   <si>
-    <t xml:space="preserve">P+ </t>
-  </si>
-  <si>
     <t>CUPT</t>
   </si>
   <si>
@@ -7888,6 +7885,9 @@
   </si>
   <si>
     <t>GFRB</t>
+  </si>
+  <si>
+    <t>P+</t>
   </si>
 </sst>
 </file>
@@ -8705,7 +8705,7 @@
         <v>331</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>3</v>
@@ -9234,7 +9234,7 @@
         <v>426</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>427</v>
@@ -9612,7 +9612,7 @@
         <v>1584</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>2092</v>
@@ -9649,7 +9649,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>340</v>
@@ -9955,7 +9955,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -10151,7 +10151,7 @@
         <v>303</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -10345,7 +10345,7 @@
         <v>2194</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>2195</v>
@@ -10686,7 +10686,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -10695,13 +10695,13 @@
         <v>323</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>758</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -10715,7 +10715,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>59</v>
@@ -10759,7 +10759,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>59</v>
@@ -10782,7 +10782,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
@@ -10815,7 +10815,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -10826,16 +10826,16 @@
         <v>111</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -12152,7 +12152,7 @@
         <v>191</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -12193,7 +12193,7 @@
         <v>221</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>607</v>
@@ -12473,7 +12473,7 @@
         <v>193</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>194</v>
@@ -12577,7 +12577,7 @@
         <v>195</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>221</v>
@@ -12672,7 +12672,7 @@
         <v>195</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>221</v>
@@ -13944,10 +13944,10 @@
         <v>317</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>2324</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2325</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>303</v>
@@ -13974,10 +13974,10 @@
         <v>1869</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>2568</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>2569</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -14009,7 +14009,7 @@
         <v>320</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>1347</v>
@@ -14064,13 +14064,13 @@
         <v>216</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>2353</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>2354</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>2355</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -14116,7 +14116,7 @@
         <v>1268</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -14136,7 +14136,7 @@
         <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -14269,24 +14269,24 @@
         <v>836</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>2359</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>2185</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1285</v>
@@ -14301,16 +14301,16 @@
         <v>482</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>2462</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>2465</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>907</v>
@@ -14348,10 +14348,10 @@
         <v>1429</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>2354</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>2355</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -14463,7 +14463,7 @@
         <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -14492,10 +14492,10 @@
         <v>844</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>2570</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>2571</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -14538,7 +14538,7 @@
         <v>589</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>985</v>
@@ -14582,13 +14582,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>844</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -14648,7 +14648,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>54</v>
@@ -14695,7 +14695,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>19</v>
@@ -14785,7 +14785,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>8</v>
@@ -14796,7 +14796,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         <v>378</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>1103</v>
@@ -14970,7 +14970,7 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>374</v>
@@ -15090,7 +15090,7 @@
         <v>426</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>427</v>
@@ -15492,24 +15492,24 @@
         <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2385</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>963</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>988</v>
@@ -15518,33 +15518,33 @@
         <v>682</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2383</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2385</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>963</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>988</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>963</v>
@@ -15583,39 +15583,39 @@
         <v>1456</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>598</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2478</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2479</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2480</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2482</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2484</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -15665,21 +15665,21 @@
         <v>1573</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>2485</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>2486</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2487</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2488</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2489</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>492</v>
@@ -15690,7 +15690,7 @@
         <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>952</v>
@@ -15704,7 +15704,7 @@
         <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -15712,107 +15712,107 @@
         <v>2154</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2495</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>1115</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>2496</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>2497</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>2498</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>2501</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>2502</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2503</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>2495</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>2495</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>2506</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>2495</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2505</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2495</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -15820,143 +15820,143 @@
         <v>1056</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>2509</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>2506</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>2511</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>2354</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>2513</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>2509</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>2506</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>2511</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>2354</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>2513</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>2505</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2510</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>2506</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>589</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>323</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>2520</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>2521</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>1115</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>1171</v>
@@ -16257,7 +16257,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1290</v>
@@ -16266,7 +16266,7 @@
         <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
@@ -16321,10 +16321,10 @@
         <v>8</v>
       </c>
       <c r="M13" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>2433</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>2434</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -16770,22 +16770,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>2397</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>2398</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>2399</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>2400</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>2401</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>2402</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -16810,7 +16810,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>414</v>
@@ -16850,7 +16850,7 @@
         <v>84</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
   </sheetData>
@@ -17482,7 +17482,7 @@
         <v>942</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>88</v>
@@ -17521,58 +17521,58 @@
         <v>373</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="AD9" s="1" t="s">
         <v>1124</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>1126</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="AH9" s="1" t="s">
         <v>1128</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="AJ9" s="1" t="s">
         <v>1130</v>
       </c>
       <c r="AK9" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AM9" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AN9" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="AM9" s="1" t="s">
+      <c r="AO9" s="1" t="s">
         <v>2590</v>
       </c>
-      <c r="AN9" s="1" t="s">
+      <c r="AP9" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AQ9" s="1" t="s">
         <v>2591</v>
       </c>
-      <c r="AP9" s="1" t="s">
+      <c r="AR9" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="AS9" s="1" t="s">
         <v>2592</v>
       </c>
-      <c r="AR9" s="1" t="s">
-        <v>2457</v>
-      </c>
-      <c r="AS9" s="1" t="s">
+      <c r="AT9" s="1" t="s">
         <v>2593</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>2594</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
@@ -17666,58 +17666,58 @@
         <v>984</v>
       </c>
       <c r="Q11" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>2405</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>2406</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="T11" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>2407</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>2409</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>2410</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>2412</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>2413</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AC11" s="1" t="s">
         <v>2415</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AG11" s="1" t="s">
         <v>2419</v>
       </c>
-      <c r="AG11" s="1" t="s">
+      <c r="AH11" s="1" t="s">
         <v>2420</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>2421</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>77</v>
@@ -18137,7 +18137,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -18794,7 +18794,7 @@
         <v>193</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>194</v>
@@ -18898,7 +18898,7 @@
         <v>195</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>221</v>
@@ -18993,7 +18993,7 @@
         <v>195</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>221</v>
@@ -19522,31 +19522,31 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>2577</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>2578</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>2579</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>2580</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>2581</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>228</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>73</v>
@@ -19561,7 +19561,7 @@
         <v>200</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>41</v>
@@ -19569,7 +19569,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>86</v>
@@ -22389,7 +22389,7 @@
         <v>493</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>1058</v>
@@ -22575,7 +22575,7 @@
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>55</v>
@@ -22599,7 +22599,7 @@
         <v>339</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
@@ -23536,7 +23536,7 @@
         <v>232</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -23672,13 +23672,13 @@
         <v>527</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="AA10" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>2364</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>2365</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>18</v>
@@ -23761,13 +23761,13 @@
         <v>440</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="Z11" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="AA11" s="1" t="s">
         <v>2364</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>2365</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>18</v>
@@ -23888,16 +23888,16 @@
         <v>558</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>2366</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>2367</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>542</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>547</v>
@@ -23950,7 +23950,7 @@
         <v>532</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>562</v>
@@ -23967,7 +23967,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -23976,7 +23976,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>2</v>
@@ -24026,37 +24026,37 @@
         <v>569</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>2369</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>2372</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>2374</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>2377</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>2378</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>2379</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
@@ -24088,10 +24088,10 @@
         <v>170</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>2380</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>2381</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>18</v>
@@ -24249,7 +24249,7 @@
         <v>2203</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2253</v>
+        <v>2609</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>2250</v>
@@ -24534,7 +24534,7 @@
         <v>746</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="AH24" s="1" t="s">
         <v>470</v>
@@ -24543,7 +24543,7 @@
         <v>188</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>18</v>
@@ -24551,7 +24551,7 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
@@ -24599,7 +24599,7 @@
         <v>643</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>628</v>
@@ -24617,13 +24617,13 @@
         <v>632</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>2249</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>191</v>
@@ -24647,16 +24647,16 @@
         <v>634</v>
       </c>
       <c r="AG25" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="AH25" s="1" t="s">
         <v>2543</v>
-      </c>
-      <c r="AH25" s="1" t="s">
-        <v>2544</v>
       </c>
       <c r="AI25" s="1" t="s">
         <v>746</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>470</v>
@@ -24665,7 +24665,7 @@
         <v>188</v>
       </c>
       <c r="AM25" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="AN25" s="1" t="s">
         <v>18</v>
@@ -24673,7 +24673,7 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -24688,10 +24688,10 @@
         <v>624</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>2549</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>2550</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>339</v>
@@ -24709,28 +24709,28 @@
         <v>627</v>
       </c>
       <c r="M26" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>2551</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>2553</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>2554</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>2557</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>2558</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>18</v>
@@ -24880,16 +24880,16 @@
         <v>18</v>
       </c>
       <c r="Q29" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="R29" s="1" t="s">
         <v>2559</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>2560</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>85</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>647</v>
@@ -24909,7 +24909,7 @@
         <v>648</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>85</v>
@@ -24968,10 +24968,10 @@
         <v>129</v>
       </c>
       <c r="R31" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="S31" s="1" t="s">
         <v>2562</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>2563</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>613</v>
@@ -24989,10 +24989,10 @@
         <v>617</v>
       </c>
       <c r="Y31" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="Z31" s="1" t="s">
         <v>2564</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>2565</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
@@ -26268,7 +26268,7 @@
         <v>1587</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>1626</v>
@@ -26289,7 +26289,7 @@
         <v>2203</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -26485,10 +26485,10 @@
         <v>162</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>2429</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>2430</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>9</v>
@@ -26772,7 +26772,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -26869,7 +26869,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1638</v>
@@ -27088,10 +27088,10 @@
         <v>1670</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>2439</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2440</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1673</v>
@@ -27100,7 +27100,7 @@
         <v>347</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>73</v>
@@ -27217,7 +27217,7 @@
         <v>1690</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -27309,7 +27309,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>857</v>
@@ -27327,7 +27327,7 @@
         <v>1706</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>1662</v>
@@ -27345,13 +27345,13 @@
         <v>106</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>568</v>
@@ -27421,16 +27421,16 @@
         <v>1130</v>
       </c>
       <c r="L21" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>2456</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>2457</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>427</v>
@@ -27542,7 +27542,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1323</v>
@@ -27562,7 +27562,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1693</v>
@@ -27586,19 +27586,19 @@
         <v>342</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>2445</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>19</v>
@@ -27609,22 +27609,22 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1693</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>2452</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>2453</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>861</v>
@@ -27821,7 +27821,7 @@
   <dimension ref="A1:AT45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27942,7 +27942,7 @@
         <v>1725</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1726</v>
@@ -28215,22 +28215,22 @@
         <v>1788</v>
       </c>
       <c r="X8" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>2596</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>2597</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>2599</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>2600</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
@@ -28256,13 +28256,13 @@
         <v>844</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>2606</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>2608</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>2607</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>1792</v>
@@ -28490,16 +28490,16 @@
         <v>1837</v>
       </c>
       <c r="AL12" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="AM12" s="1" t="s">
         <v>2318</v>
       </c>
-      <c r="AM12" s="1" t="s">
+      <c r="AN12" s="1" t="s">
         <v>2319</v>
       </c>
-      <c r="AN12" s="1" t="s">
+      <c r="AO12" s="1" t="s">
         <v>2320</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>2321</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
@@ -28615,31 +28615,31 @@
         <v>1837</v>
       </c>
       <c r="AL13" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="AM13" s="1" t="s">
         <v>2318</v>
       </c>
-      <c r="AM13" s="1" t="s">
+      <c r="AN13" s="1" t="s">
         <v>2319</v>
       </c>
-      <c r="AN13" s="1" t="s">
+      <c r="AO13" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="AO13" s="1" t="s">
-        <v>2321</v>
-      </c>
       <c r="AP13" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
         <v>2601</v>
       </c>
-      <c r="AQ13" s="1" t="s">
+      <c r="AR13" s="1" t="s">
         <v>2602</v>
       </c>
-      <c r="AR13" s="1" t="s">
+      <c r="AS13" s="1" t="s">
         <v>2603</v>
       </c>
-      <c r="AS13" s="1" t="s">
+      <c r="AT13" s="1" t="s">
         <v>2604</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>2605</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
@@ -28739,7 +28739,7 @@
         <v>746</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>1839</v>
@@ -29004,7 +29004,7 @@
         <v>106</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -29054,7 +29054,7 @@
         <v>1850</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>701</v>
@@ -29063,7 +29063,7 @@
         <v>214</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>1259</v>
@@ -29072,7 +29072,7 @@
         <v>1436</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -29164,7 +29164,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
@@ -29205,7 +29205,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>671</v>
@@ -29308,7 +29308,7 @@
         <v>1881</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>1882</v>
@@ -29985,7 +29985,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD8 A9:O9 Q9:XFD9 A10:XFD15 A16:D16 F16:XFD16 A17:XFD33 A35:XFD1048576 A34:J34 L34:XFD34">
+  <conditionalFormatting sqref="A1:XFD8 A9:O9 Q9:XFD9 A10:XFD15 A16:D16 F16:XFD16 A17:XFD33 A34:J34 L34:XFD34 A35:XFD1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(1:1,A1)&gt;1</formula>
     </cfRule>
@@ -30021,12 +30021,12 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -30040,7 +30040,7 @@
         <v>2</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -30051,10 +30051,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>2263</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2264</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1476</v>
@@ -30062,10 +30062,10 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1719</v>
@@ -30074,25 +30074,25 @@
         <v>1055</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>2266</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>2267</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>2268</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>2269</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>1056</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>2270</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>2271</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -30103,7 +30103,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>640</v>
@@ -30120,13 +30120,13 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>799</v>
@@ -30141,18 +30141,18 @@
         <v>607</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>2274</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>2275</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>2276</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>86</v>
@@ -30191,69 +30191,69 @@
         <v>102</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>2279</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>2280</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>2281</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>2282</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>2284</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>2285</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>2286</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>2287</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>2288</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>2289</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AB10" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AC10" s="1" t="s">
         <v>2292</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>2293</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>2294</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AF10" s="1" t="s">
         <v>2295</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AG10" s="1" t="s">
         <v>2296</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>86</v>
@@ -30292,69 +30292,69 @@
         <v>102</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>2279</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>2280</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>2281</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>2282</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>2284</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>2285</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>2286</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>2287</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>2288</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>2289</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AC11" s="1" t="s">
         <v>2292</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>2293</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>2294</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>2295</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AG11" s="1" t="s">
         <v>2296</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -30396,63 +30396,63 @@
         <v>102</v>
       </c>
       <c r="O12" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>2279</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>2280</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>2281</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>2282</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>2284</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>2285</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>2286</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>2287</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>2288</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>2289</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AB12" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AC12" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>2292</v>
       </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>2293</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AF12" s="1" t="s">
         <v>2294</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>2295</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>61</v>
@@ -30467,7 +30467,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1273</v>
@@ -30475,7 +30475,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>86</v>
@@ -30496,7 +30496,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>1273</v>
@@ -30504,7 +30504,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1286</v>
@@ -30521,7 +30521,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>110</v>
@@ -30536,12 +30536,12 @@
         <v>194</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>110</v>
@@ -30558,7 +30558,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>110</v>
@@ -30576,27 +30576,27 @@
         <v>953</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>2309</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>2310</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>1458</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>2311</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>2312</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>2313</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>110</v>
@@ -30605,7 +30605,7 @@
         <v>1286</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
@@ -30613,39 +30613,39 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>2328</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>2329</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>2331</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>2332</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>2333</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>2335</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>2334</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>2336</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>2337</v>
       </c>
     </row>
   </sheetData>
@@ -30937,7 +30937,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -30957,12 +30957,12 @@
         <v>909</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>61</v>
@@ -30990,13 +30990,13 @@
         <v>413</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -31020,7 +31020,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>568</v>
@@ -31028,13 +31028,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>324</v>
@@ -31057,7 +31057,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>802</v>
@@ -31160,7 +31160,7 @@
         <v>796</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>779</v>
@@ -31175,7 +31175,7 @@
         <v>782</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>1227</v>
@@ -31184,7 +31184,7 @@
         <v>1574</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>788</v>
@@ -31229,7 +31229,7 @@
         <v>776</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>784</v>
@@ -31353,7 +31353,7 @@
         <v>815</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>816</v>
@@ -31371,7 +31371,7 @@
         <v>820</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>821</v>
@@ -31389,7 +31389,7 @@
         <v>826</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
@@ -31421,7 +31421,7 @@
         <v>479</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>422</v>
@@ -31637,7 +31637,7 @@
         <v>859</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>860</v>
@@ -31745,7 +31745,7 @@
         <v>401</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -32329,33 +32329,33 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>414</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2470</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2471</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2472</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>2473</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2474</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -32369,7 +32369,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>

--- a/build/keywords.xlsx
+++ b/build/keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Develop\Pulsar\language-sofistik\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CA5FBB-4B53-4CC9-9797-87AA84279E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8849AE-2382-4957-9208-521B96C2FFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21270" firstSheet="18" activeTab="33" xr2:uid="{F1DC097C-994B-40A0-AE10-01AA50F843D6}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21270" firstSheet="2" activeTab="2" xr2:uid="{F1DC097C-994B-40A0-AE10-01AA50F843D6}"/>
   </bookViews>
   <sheets>
     <sheet name="AQB" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7234" uniqueCount="2610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7234" uniqueCount="2609">
   <si>
     <t>GRP</t>
   </si>
@@ -7885,9 +7885,6 @@
   </si>
   <si>
     <t>GFRB</t>
-  </si>
-  <si>
-    <t>P+</t>
   </si>
 </sst>
 </file>
@@ -23183,8 +23180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EFB9C5-8420-44DD-84A3-54AD5FB79C97}">
   <dimension ref="A1:AX54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24249,7 +24246,7 @@
         <v>2203</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2609</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>2250</v>
@@ -27820,7 +27817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928FE8A4-6029-46B4-A0BD-FBD8644AEC99}">
   <dimension ref="A1:AT45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>

--- a/build/keywords.xlsx
+++ b/build/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Develop\Pulsar\language-sofistik\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8849AE-2382-4957-9208-521B96C2FFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB5DB6C-69A1-4EAD-8591-370B97B1A433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21270" firstSheet="2" activeTab="2" xr2:uid="{F1DC097C-994B-40A0-AE10-01AA50F843D6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7234" uniqueCount="2609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7234" uniqueCount="2610">
   <si>
     <t>GRP</t>
   </si>
@@ -7885,6 +7885,9 @@
   </si>
   <si>
     <t>GFRB</t>
+  </si>
+  <si>
+    <t>P+</t>
   </si>
 </sst>
 </file>
@@ -23181,7 +23184,7 @@
   <dimension ref="A1:AX54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24246,7 +24249,7 @@
         <v>2203</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>2609</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>2250</v>
